--- a/tbl_Scores.xlsx
+++ b/tbl_Scores.xlsx
@@ -1,19 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\BI_NodeJsVersion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C407E5F2-3BBF-4767-A165-111A7E2FF495}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="tbl_Scores" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>fk_University</t>
+  </si>
+  <si>
+    <t>national_rank</t>
+  </si>
+  <si>
+    <t>quality_of_education</t>
+  </si>
+  <si>
+    <t>alumni_employment</t>
+  </si>
+  <si>
+    <t>publications</t>
+  </si>
+  <si>
+    <t>citations</t>
+  </si>
+  <si>
+    <t>patents</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +90,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,47 +422,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H261"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I261"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A261"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>fk_University</v>
-      </c>
-      <c r="B1" t="str">
-        <v>national_rank</v>
-      </c>
-      <c r="C1" t="str">
-        <v>quality_of_education</v>
-      </c>
-      <c r="D1" t="str">
-        <v>alumni_employment</v>
-      </c>
-      <c r="E1" t="str">
-        <v>publications</v>
-      </c>
-      <c r="F1" t="str">
-        <v>citations</v>
-      </c>
-      <c r="G1" t="str">
-        <v>patents</v>
-      </c>
-      <c r="H1" t="str">
-        <v>year</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>52</v>
-      </c>
-      <c r="C2">
-        <v>101</v>
       </c>
       <c r="D2">
         <v>101</v>
@@ -423,6752 +477,7533 @@
         <v>101</v>
       </c>
       <c r="F2">
+        <v>101</v>
+      </c>
+      <c r="G2">
         <v>77</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>49</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2018</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>55</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>115</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>124</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>120</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>81</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>49</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2019</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>62</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>101</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>103</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>114</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>62</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>57</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2020</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>53</v>
-      </c>
-      <c r="C5">
-        <v>106</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="F5">
         <v>117</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>49</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>69</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2021</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>171</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>355</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>261</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>463</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>310</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>373</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2018</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>142</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>289</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>200</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>454</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>282</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>436</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2019</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>177</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>280</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>211</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>465</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>241</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>486</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2020</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>185</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>218</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>186</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>442</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>269</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>466</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2021</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>44</v>
-      </c>
-      <c r="C10">
-        <v>101</v>
       </c>
       <c r="D10">
         <v>101</v>
       </c>
       <c r="E10">
+        <v>101</v>
+      </c>
+      <c r="F10">
         <v>48</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>37</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>101</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2018</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>45</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>109</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>79</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>49</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>40</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>108</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2019</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>47</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>95</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>61</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>38</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>35</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>121</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2020</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>40</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>114</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>74</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>44</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>30</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>101</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2021</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>215</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>355</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>365</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>907</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>609</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>737</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2018</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>210</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>288</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>451</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>829</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>629</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>591</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2019</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>248</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>246</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>494</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>638</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>677</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>653</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2020</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>263</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>239</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>425</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>707</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>648</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>641</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2021</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>97</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>49</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>311</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>527</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>493</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>128</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2018</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
         <v>83</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>40</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>307</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>517</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>552</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>152</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2019</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>67</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>43</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>240</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>392</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>544</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>144</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2020</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>70</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>36</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>238</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>304</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>634</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>154</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2021</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>31</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>30</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>81</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>101</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>61</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>101</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2018</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>24</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>29</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>26</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>70</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>112</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>69</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>118</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2019</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>28</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>20</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>67</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>112</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>61</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>97</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2020</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
         <v>32</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>23</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>81</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>87</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>73</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>86</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2021</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
         <v>51</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>33</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>101</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>96</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>65</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>101</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2018</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>61</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>28</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>94</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>111</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>57</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>108</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2019</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>25</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>73</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>22</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>88</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>122</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>45</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>101</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2020</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>25</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>74</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>19</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>81</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>111</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>54</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>118</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2021</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>31</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>212</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>355</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>305</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>943</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>800</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>552</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2018</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>224</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>408</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>263</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1169</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>937</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>632</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2019</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
         <v>276</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>311</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>286</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1329</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>759</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>493</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2020</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>213</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>291</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>219</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1575</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>816</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>557</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2021</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
         <v>129</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>355</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>82</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>639</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>310</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>637</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>2018</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>111</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>323</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>83</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>716</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>354</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>710</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2019</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>114</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>275</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>73</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>874</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>328</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>852</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2020</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>33</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>97</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>340</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>70</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1073</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>266</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1018</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>2021</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>10</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>21</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>42</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>22</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>16</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>10</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2018</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
         <v>9</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>21</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>36</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>21</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>19</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>10</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>2019</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>7</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>17</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>28</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>23</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>20</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>9</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>2020</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>8</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>19</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>27</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>18</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>17</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>8</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>2021</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>39</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>160</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>355</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>478</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>792</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>250</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>637</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>2018</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>39</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>123</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>301</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>484</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>630</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>262</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>522</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>2019</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>39</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>144</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>242</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>395</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>767</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>209</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>592</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>2020</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>39</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>142</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>250</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>370</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>588</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>216</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>550</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>2021</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>107</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>355</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>262</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>366</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>220</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>89</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>2018</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
         <v>104</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>383</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>256</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>385</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>251</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>91</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>2019</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>94</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>348</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>229</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>292</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>195</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>103</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>2020</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>75</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>295</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>255</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>343</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>216</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>128</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>2021</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>20</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>65</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>43</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>20</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>12</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>20</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>2018</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>47</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>22</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>78</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>53</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>16</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>14</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>23</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>2019</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
         <v>47</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>18</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>65</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>44</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>20</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>11</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>23</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>2020</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
         <v>47</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>50</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>41</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>16</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>13</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>24</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>2021</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
         <v>51</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>186</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>355</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>478</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>502</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>363</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>637</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>2018</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
         <v>51</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>184</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>360</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>528</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>560</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>325</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>621</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>2019</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
         <v>51</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>163</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>336</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>621</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>661</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>258</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>504</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>2020</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
         <v>51</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>164</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>349</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>696</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>586</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>321</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>534</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>2021</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
         <v>54</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>141</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>355</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>478</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>449</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>283</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>637</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>2018</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
         <v>54</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>149</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>335</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>527</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>493</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>320</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>688</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>2019</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
         <v>54</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>155</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>370</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>617</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>404</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>320</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>556</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>2020</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
         <v>54</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>192</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>328</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>606</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>367</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>242</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>552</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>2021</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
         <v>55</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>79</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>176</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>53</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>312</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>187</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>307</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>2018</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
         <v>55</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>70</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>146</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>40</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>240</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>141</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>371</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>2019</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
         <v>55</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>57</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>131</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>35</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>264</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>167</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>360</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>2020</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
         <v>55</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>49</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>138</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>35</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>321</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>191</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>311</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>2021</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
         <v>56</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>61</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>146</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>37</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>295</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>310</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>159</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>2018</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
         <v>56</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>53</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>155</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>38</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>252</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>233</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>175</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>2019</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
         <v>56</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>66</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>191</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>40</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>226</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>274</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>198</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>2020</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>56</v>
       </c>
       <c r="C69">
+        <v>56</v>
+      </c>
+      <c r="D69">
         <v>159</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>46</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>268</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>243</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>193</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>2021</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
         <v>58</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>164</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>355</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>434</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>465</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>363</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>426</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>2018</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
         <v>58</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>168</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>290</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>504</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>530</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>351</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>367</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>2019</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
         <v>58</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>193</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>353</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>514</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>480</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>309</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>345</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>2020</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
         <v>58</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>153</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>357</v>
-      </c>
-      <c r="D73">
-        <v>498</v>
       </c>
       <c r="E73">
         <v>498</v>
       </c>
       <c r="F73">
+        <v>498</v>
+      </c>
+      <c r="G73">
         <v>305</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>398</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>2021</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
         <v>63</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>1</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>7</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>9</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
         <v>5</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>2018</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
         <v>63</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>1</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>8</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>9</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
         <v>4</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>2019</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
         <v>63</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>1</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>9</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>10</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
         <v>3</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>2020</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
         <v>63</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>1</v>
-      </c>
-      <c r="C77">
-        <v>10</v>
       </c>
       <c r="D77">
         <v>10</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
         <v>2</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>2021</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
         <v>65</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>159</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>251</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>123</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>767</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>800</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>737</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>2018</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
         <v>65</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>169</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>248</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>136</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>831</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>827</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>633</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>2019</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
         <v>65</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>140</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>295</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>144</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>930</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>766</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>765</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>2020</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
         <v>65</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>112</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>341</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>117</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>730</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>841</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>915</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>2021</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
         <v>69</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>12</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>34</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>77</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>11</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>9</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>7</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>2018</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
         <v>69</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>10</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>32</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>75</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>8</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>7</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>5</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>2019</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
         <v>69</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>8</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>27</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>57</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>9</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>8</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>6</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>2020</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
         <v>69</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>6</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>24</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>68</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>9</v>
-      </c>
-      <c r="F85">
-        <v>7</v>
       </c>
       <c r="G85">
         <v>7</v>
       </c>
       <c r="H85">
+        <v>7</v>
+      </c>
+      <c r="I85">
         <v>2021</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
         <v>70</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>120</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>116</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>165</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>348</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>220</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>259</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>2018</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
         <v>70</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>149</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>100</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>134</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>391</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>199</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>224</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>2019</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
         <v>70</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>121</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>83</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>113</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>323</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>151</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>173</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>2020</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
         <v>70</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>101</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>86</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>131</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>253</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>164</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>208</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>2021</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
         <v>75</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>146</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>355</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>350</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>538</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>609</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>737</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>2018</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
         <v>75</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>174</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>373</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>344</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>668</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>717</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>665</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>2019</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
         <v>75</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>192</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>297</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>387</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>792</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>654</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>825</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>2020</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
         <v>75</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>174</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>339</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>415</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>674</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>629</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>1029</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>2021</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
         <v>79</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>2</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>9</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>17</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>12</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>4</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>1</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>2018</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
         <v>79</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>2</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>8</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>18</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>10</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>4</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>1</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>2019</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
         <v>79</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>2</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>7</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>17</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>9</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>4</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>1</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>2020</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
         <v>79</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>2</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>5</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>13</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>7</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>5</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>1</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>2021</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
         <v>80</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>118</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>355</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>478</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>322</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>310</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>552</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>2018</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
         <v>80</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>140</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>326</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>381</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>310</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>269</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>614</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>2019</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
         <v>80</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>123</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>262</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>366</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>271</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>278</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>658</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>2020</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
         <v>80</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>106</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>265</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>299</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>233</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>224</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>721</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>2021</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
         <v>82</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>59</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>112</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>214</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>85</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>45</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>128</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>2018</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
         <v>82</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>45</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>89</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>189</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>102</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>50</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>104</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>2019</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
         <v>82</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>39</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>72</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>187</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>112</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>40</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>99</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>2020</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
         <v>82</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>48</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>76</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>188</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>93</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>42</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>108</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>2021</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
         <v>85</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>183</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>355</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>204</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>696</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>493</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>737</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>2018</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
         <v>85</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>220</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>311</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>182</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>787</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>477</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>748</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>2019</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
         <v>85</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>168</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>328</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>155</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>979</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>500</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>823</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>2020</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
         <v>85</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>191</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>274</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>159</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>928</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>589</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>638</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>2021</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
         <v>88</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>190</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>235</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>326</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>745</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>800</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>426</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>2018</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
         <v>88</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>212</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>201</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>315</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>818</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>631</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>420</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>2019</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
         <v>88</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>202</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>221</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>387</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>848</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>595</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>383</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>2020</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
         <v>88</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>168</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>240</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>326</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>805</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>451</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>376</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>2021</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
         <v>90</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>16</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>89</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>75</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>42</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>34</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>62</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>2018</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
         <v>90</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>14</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>104</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>72</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>52</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>38</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>72</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>2019</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
         <v>90</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>17</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>108</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>72</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>49</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>32</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>80</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>2020</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
         <v>90</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>19</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>134</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>70</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>37</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>31</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>81</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>2021</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
         <v>92</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>119</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>295</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>171</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>383</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>250</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>115</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>2018</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
         <v>92</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>104</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>353</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>142</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>399</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>285</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>93</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>2019</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
         <v>92</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>93</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>405</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>113</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>361</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>251</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>70</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>2020</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
         <v>92</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>101</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>376</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>89</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>356</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>301</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>79</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>2021</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
         <v>94</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>23</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>101</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>32</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>24</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>20</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>35</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>2018</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
         <v>94</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>22</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>103</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>34</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>19</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>22</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>32</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>2019</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
         <v>94</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>21</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>112</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>33</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>21</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>17</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>24</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>2020</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
         <v>94</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>25</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>137</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>32</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>17</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>14</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>20</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>2021</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
         <v>97</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>223</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>355</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>478</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>883</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>800</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>737</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>2018</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
         <v>97</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>264</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>372</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>579</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>867</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>825</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>858</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>2019</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
         <v>97</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>256</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>391</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>609</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>861</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>987</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>1016</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>2020</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
         <v>97</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>264</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>394</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>685</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>829</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>845</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>1008</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>2021</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
         <v>110</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>100</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>120</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>121</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>375</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>159</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>138</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>2018</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
         <v>110</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>94</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>139</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>106</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>454</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>121</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>144</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>2019</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
         <v>110</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>73</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>153</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>118</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>441</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>130</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>123</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>2020</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
         <v>110</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>77</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>122</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>135</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>469</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>99</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>152</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>2021</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
         <v>111</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>191</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>355</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>366</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>936</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>310</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>373</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>2018</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
         <v>111</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>204</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>387</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>299</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>947</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>332</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>466</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>2019</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
         <v>111</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>206</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>422</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>314</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>1134</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>299</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>481</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>2020</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
         <v>111</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>216</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>381</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>290</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>1046</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>341</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>396</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>2021</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
         <v>123</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>74</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>157</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>34</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>632</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>406</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>737</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>2018</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
         <v>123</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>62</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>127</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>27</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>685</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>341</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>783</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>2019</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
         <v>123</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>68</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>96</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>23</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>573</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>345</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>795</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>2020</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
         <v>123</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>63</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>72</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>24</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>490</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>327</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>922</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>2021</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
         <v>127</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>3</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>17</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>11</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>4</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>2</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>15</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>2018</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
         <v>127</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>3</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>18</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>11</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>3</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>2</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>17</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>2019</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
         <v>127</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>3</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>17</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>9</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>3</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>2</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>16</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>2020</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
         <v>127</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>3</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>16</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>10</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>3</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>2</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>17</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>2021</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
         <v>129</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>147</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>129</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>249</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>459</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>310</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>338</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>2018</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
         <v>129</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>169</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>134</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>305</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>559</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>248</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>316</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>2019</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
         <v>129</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>210</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>151</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>297</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>437</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>263</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>346</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>2020</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
         <v>129</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>200</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>149</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>262</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>545</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>246</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>285</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>2021</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
         <v>148</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>72</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>355</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>478</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>139</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>134</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>194</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>2018</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
         <v>148</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>70</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>271</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>580</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>163</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>164</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>238</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>2019</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
         <v>148</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>83</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>289</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>695</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>133</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>168</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>181</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>2020</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
         <v>148</v>
       </c>
-      <c r="B153">
+      <c r="C153">
         <v>103</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>315</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>598</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>105</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>154</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>180</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>2021</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
         <v>149</v>
       </c>
-      <c r="B154">
+      <c r="C154">
         <v>206</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>355</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>478</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>886</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>800</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>737</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>2018</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
         <v>149</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>219</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>270</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>470</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>741</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>950</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>669</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>2019</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
         <v>149</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>243</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>323</v>
       </c>
-      <c r="D156">
+      <c r="E156">
         <v>518</v>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>674</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>1177</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>680</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>2020</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
         <v>149</v>
       </c>
-      <c r="B157">
+      <c r="C157">
         <v>281</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>269</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <v>620</v>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>666</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>997</v>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>646</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>2021</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
         <v>150</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>37</v>
-      </c>
-      <c r="C158">
-        <v>101</v>
       </c>
       <c r="D158">
         <v>101</v>
       </c>
       <c r="E158">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F158">
         <v>45</v>
       </c>
       <c r="G158">
+        <v>45</v>
+      </c>
+      <c r="H158">
         <v>27</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <v>2018</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
         <v>150</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>44</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>93</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <v>108</v>
       </c>
-      <c r="E159">
+      <c r="F159">
         <v>36</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>41</v>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>30</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>2019</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
         <v>150</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>49</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>78</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>131</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>27</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>48</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>31</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>2020</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
         <v>150</v>
       </c>
-      <c r="B161">
+      <c r="C161">
         <v>42</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>94</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <v>164</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>26</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>54</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>34</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>2021</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
         <v>157</v>
       </c>
-      <c r="B162">
+      <c r="C162">
         <v>137</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>355</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <v>468</v>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>388</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>493</v>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>149</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>2018</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
         <v>157</v>
       </c>
-      <c r="B163">
+      <c r="C163">
         <v>117</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>272</v>
       </c>
-      <c r="D163">
+      <c r="E163">
         <v>573</v>
       </c>
-      <c r="E163">
+      <c r="F163">
         <v>307</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>604</v>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>156</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>2019</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
         <v>157</v>
       </c>
-      <c r="B164">
+      <c r="C164">
         <v>89</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>300</v>
       </c>
-      <c r="D164">
+      <c r="E164">
         <v>660</v>
       </c>
-      <c r="E164">
+      <c r="F164">
         <v>309</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>535</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>192</v>
       </c>
-      <c r="H164">
+      <c r="I164">
         <v>2020</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
         <v>157</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>80</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>341</v>
       </c>
-      <c r="D165">
+      <c r="E165">
         <v>550</v>
       </c>
-      <c r="E165">
+      <c r="F165">
         <v>344</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>643</v>
       </c>
-      <c r="G165">
+      <c r="H165">
         <v>187</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <v>2021</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
         <v>158</v>
       </c>
-      <c r="B166">
+      <c r="C166">
         <v>9</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>15</v>
       </c>
-      <c r="D166">
+      <c r="E166">
         <v>26</v>
       </c>
-      <c r="E166">
+      <c r="F166">
         <v>34</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>28</v>
       </c>
-      <c r="G166">
+      <c r="H166">
         <v>101</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <v>2018</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
         <v>158</v>
       </c>
-      <c r="B167">
+      <c r="C167">
         <v>10</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>12</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>21</v>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>37</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>32</v>
       </c>
-      <c r="G167">
+      <c r="H167">
         <v>87</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>2019</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
         <v>158</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>12</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>9</v>
       </c>
-      <c r="D168">
+      <c r="E168">
         <v>19</v>
       </c>
-      <c r="E168">
+      <c r="F168">
         <v>37</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>29</v>
       </c>
-      <c r="G168">
+      <c r="H168">
         <v>73</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>2020</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
         <v>158</v>
-      </c>
-      <c r="B169">
-        <v>10</v>
       </c>
       <c r="C169">
         <v>10</v>
       </c>
       <c r="D169">
+        <v>10</v>
+      </c>
+      <c r="E169">
         <v>16</v>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>31</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>28</v>
       </c>
-      <c r="G169">
+      <c r="H169">
         <v>69</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>2021</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
         <v>159</v>
       </c>
-      <c r="B170">
+      <c r="C170">
         <v>78</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>305</v>
       </c>
-      <c r="D170">
+      <c r="E170">
         <v>132</v>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>145</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>159</v>
       </c>
-      <c r="G170">
+      <c r="H170">
         <v>204</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>2018</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
         <v>159</v>
       </c>
-      <c r="B171">
+      <c r="C171">
         <v>80</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <v>340</v>
       </c>
-      <c r="D171">
+      <c r="E171">
         <v>148</v>
       </c>
-      <c r="E171">
+      <c r="F171">
         <v>167</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>119</v>
       </c>
-      <c r="G171">
+      <c r="H171">
         <v>157</v>
       </c>
-      <c r="H171">
+      <c r="I171">
         <v>2019</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
         <v>159</v>
       </c>
-      <c r="B172">
+      <c r="C172">
         <v>86</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <v>263</v>
       </c>
-      <c r="D172">
+      <c r="E172">
         <v>180</v>
       </c>
-      <c r="E172">
+      <c r="F172">
         <v>152</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>120</v>
       </c>
-      <c r="G172">
+      <c r="H172">
         <v>141</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>2020</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
         <v>159</v>
       </c>
-      <c r="B173">
+      <c r="C173">
         <v>88</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>239</v>
       </c>
-      <c r="D173">
+      <c r="E173">
         <v>146</v>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>157</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>142</v>
       </c>
-      <c r="G173">
+      <c r="H173">
         <v>122</v>
       </c>
-      <c r="H173">
+      <c r="I173">
         <v>2021</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
         <v>160</v>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>34</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>83</v>
       </c>
-      <c r="D174">
+      <c r="E174">
         <v>88</v>
       </c>
-      <c r="E174">
+      <c r="F174">
         <v>71</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>56</v>
       </c>
-      <c r="G174">
+      <c r="H174">
         <v>101</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <v>2018</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
         <v>160</v>
       </c>
-      <c r="B175">
+      <c r="C175">
         <v>39</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>83</v>
       </c>
-      <c r="D175">
+      <c r="E175">
         <v>89</v>
       </c>
-      <c r="E175">
+      <c r="F175">
         <v>79</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>64</v>
       </c>
-      <c r="G175">
+      <c r="H175">
         <v>83</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>2019</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
         <v>160</v>
       </c>
-      <c r="B176">
+      <c r="C176">
         <v>32</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>87</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <v>92</v>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>82</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>62</v>
       </c>
-      <c r="G176">
+      <c r="H176">
         <v>94</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>2020</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
         <v>160</v>
       </c>
-      <c r="B177">
+      <c r="C177">
         <v>28</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <v>104</v>
-      </c>
-      <c r="D177">
-        <v>89</v>
       </c>
       <c r="E177">
         <v>89</v>
       </c>
       <c r="F177">
+        <v>89</v>
+      </c>
+      <c r="G177">
         <v>60</v>
       </c>
-      <c r="G177">
+      <c r="H177">
         <v>111</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <v>2021</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
         <v>161</v>
       </c>
-      <c r="B178">
+      <c r="C178">
         <v>65</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <v>355</v>
       </c>
-      <c r="D178">
+      <c r="E178">
         <v>478</v>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>140</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>150</v>
       </c>
-      <c r="G178">
+      <c r="H178">
         <v>78</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <v>2018</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
         <v>161</v>
       </c>
-      <c r="B179">
+      <c r="C179">
         <v>65</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>310</v>
       </c>
-      <c r="D179">
+      <c r="E179">
         <v>388</v>
       </c>
-      <c r="E179">
+      <c r="F179">
         <v>170</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>158</v>
       </c>
-      <c r="G179">
+      <c r="H179">
         <v>93</v>
       </c>
-      <c r="H179">
+      <c r="I179">
         <v>2019</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
         <v>161</v>
       </c>
-      <c r="B180">
+      <c r="C180">
         <v>77</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <v>268</v>
       </c>
-      <c r="D180">
+      <c r="E180">
         <v>328</v>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>186</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>147</v>
       </c>
-      <c r="G180">
+      <c r="H180">
         <v>110</v>
       </c>
-      <c r="H180">
+      <c r="I180">
         <v>2020</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
         <v>161</v>
       </c>
-      <c r="B181">
+      <c r="C181">
         <v>59</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <v>283</v>
       </c>
-      <c r="D181">
+      <c r="E181">
         <v>392</v>
       </c>
-      <c r="E181">
+      <c r="F181">
         <v>214</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>151</v>
       </c>
-      <c r="G181">
+      <c r="H181">
         <v>129</v>
       </c>
-      <c r="H181">
+      <c r="I181">
         <v>2021</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
         <v>162</v>
       </c>
-      <c r="B182">
+      <c r="C182">
         <v>94</v>
       </c>
-      <c r="C182">
+      <c r="D182">
         <v>282</v>
       </c>
-      <c r="D182">
+      <c r="E182">
         <v>402</v>
       </c>
-      <c r="E182">
+      <c r="F182">
         <v>160</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>200</v>
       </c>
-      <c r="G182">
+      <c r="H182">
         <v>204</v>
       </c>
-      <c r="H182">
+      <c r="I182">
         <v>2018</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
         <v>162</v>
       </c>
-      <c r="B183">
+      <c r="C183">
         <v>97</v>
       </c>
-      <c r="C183">
+      <c r="D183">
         <v>224</v>
       </c>
-      <c r="D183">
+      <c r="E183">
         <v>415</v>
       </c>
-      <c r="E183">
+      <c r="F183">
         <v>190</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>157</v>
       </c>
-      <c r="G183">
+      <c r="H183">
         <v>160</v>
       </c>
-      <c r="H183">
+      <c r="I183">
         <v>2019</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
         <v>162</v>
       </c>
-      <c r="B184">
+      <c r="C184">
         <v>85</v>
       </c>
-      <c r="C184">
+      <c r="D184">
         <v>235</v>
       </c>
-      <c r="D184">
+      <c r="E184">
         <v>454</v>
       </c>
-      <c r="E184">
+      <c r="F184">
         <v>214</v>
       </c>
-      <c r="F184">
+      <c r="G184">
         <v>162</v>
       </c>
-      <c r="G184">
+      <c r="H184">
         <v>121</v>
       </c>
-      <c r="H184">
+      <c r="I184">
         <v>2020</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
         <v>162</v>
       </c>
-      <c r="B185">
+      <c r="C185">
         <v>66</v>
       </c>
-      <c r="C185">
+      <c r="D185">
         <v>201</v>
       </c>
-      <c r="D185">
+      <c r="E185">
         <v>347</v>
       </c>
-      <c r="E185">
+      <c r="F185">
         <v>191</v>
       </c>
-      <c r="F185">
+      <c r="G185">
         <v>175</v>
       </c>
-      <c r="G185">
+      <c r="H185">
         <v>145</v>
       </c>
-      <c r="H185">
+      <c r="I185">
         <v>2021</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
         <v>163</v>
       </c>
-      <c r="B186">
+      <c r="C186">
         <v>158</v>
       </c>
-      <c r="C186">
+      <c r="D186">
         <v>283</v>
       </c>
-      <c r="D186">
+      <c r="E186">
         <v>141</v>
       </c>
-      <c r="E186">
+      <c r="F186">
         <v>906</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>493</v>
       </c>
-      <c r="G186">
+      <c r="H186">
         <v>552</v>
       </c>
-      <c r="H186">
+      <c r="I186">
         <v>2018</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
         <v>163</v>
       </c>
-      <c r="B187">
+      <c r="C187">
         <v>184</v>
       </c>
-      <c r="C187">
+      <c r="D187">
         <v>236</v>
       </c>
-      <c r="D187">
+      <c r="E187">
         <v>108</v>
       </c>
-      <c r="E187">
+      <c r="F187">
         <v>1046</v>
       </c>
-      <c r="F187">
+      <c r="G187">
         <v>495</v>
       </c>
-      <c r="G187">
+      <c r="H187">
         <v>668</v>
       </c>
-      <c r="H187">
+      <c r="I187">
         <v>2019</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
         <v>163</v>
       </c>
-      <c r="B188">
+      <c r="C188">
         <v>148</v>
       </c>
-      <c r="C188">
+      <c r="D188">
         <v>284</v>
       </c>
-      <c r="D188">
+      <c r="E188">
         <v>135</v>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>997</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>438</v>
       </c>
-      <c r="G188">
+      <c r="H188">
         <v>748</v>
       </c>
-      <c r="H188">
+      <c r="I188">
         <v>2020</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
         <v>163</v>
       </c>
-      <c r="B189">
+      <c r="C189">
         <v>115</v>
       </c>
-      <c r="C189">
+      <c r="D189">
         <v>234</v>
       </c>
-      <c r="D189">
+      <c r="E189">
         <v>164</v>
       </c>
-      <c r="E189">
+      <c r="F189">
         <v>899</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>539</v>
       </c>
-      <c r="G189">
+      <c r="H189">
         <v>913</v>
       </c>
-      <c r="H189">
+      <c r="I189">
         <v>2021</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
         <v>164</v>
       </c>
-      <c r="B190">
+      <c r="C190">
         <v>40</v>
-      </c>
-      <c r="C190">
-        <v>101</v>
       </c>
       <c r="D190">
         <v>101</v>
       </c>
       <c r="E190">
+        <v>101</v>
+      </c>
+      <c r="F190">
         <v>29</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>42</v>
       </c>
-      <c r="G190">
+      <c r="H190">
         <v>2</v>
       </c>
-      <c r="H190">
+      <c r="I190">
         <v>2018</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
         <v>164</v>
       </c>
-      <c r="B191">
+      <c r="C191">
         <v>38</v>
       </c>
-      <c r="C191">
+      <c r="D191">
         <v>122</v>
       </c>
-      <c r="D191">
+      <c r="E191">
         <v>113</v>
       </c>
-      <c r="E191">
+      <c r="F191">
         <v>31</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>37</v>
       </c>
-      <c r="G191">
+      <c r="H191">
         <v>2</v>
       </c>
-      <c r="H191">
+      <c r="I191">
         <v>2019</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
         <v>164</v>
       </c>
-      <c r="B192">
+      <c r="C192">
         <v>43</v>
       </c>
-      <c r="C192">
+      <c r="D192">
         <v>94</v>
       </c>
-      <c r="D192">
+      <c r="E192">
         <v>91</v>
       </c>
-      <c r="E192">
+      <c r="F192">
         <v>33</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>41</v>
       </c>
-      <c r="G192">
+      <c r="H192">
         <v>2</v>
       </c>
-      <c r="H192">
+      <c r="I192">
         <v>2020</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
         <v>164</v>
       </c>
-      <c r="B193">
+      <c r="C193">
         <v>39</v>
       </c>
-      <c r="C193">
+      <c r="D193">
         <v>73</v>
       </c>
-      <c r="D193">
+      <c r="E193">
         <v>112</v>
       </c>
-      <c r="E193">
+      <c r="F193">
         <v>37</v>
       </c>
-      <c r="F193">
+      <c r="G193">
         <v>33</v>
       </c>
-      <c r="G193">
+      <c r="H193">
         <v>2</v>
       </c>
-      <c r="H193">
+      <c r="I193">
         <v>2021</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
         <v>165</v>
       </c>
-      <c r="B194">
+      <c r="C194">
         <v>87</v>
       </c>
-      <c r="C194">
+      <c r="D194">
         <v>104</v>
       </c>
-      <c r="D194">
+      <c r="E194">
         <v>193</v>
       </c>
-      <c r="E194">
+      <c r="F194">
         <v>176</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>187</v>
       </c>
-      <c r="G194">
+      <c r="H194">
         <v>128</v>
       </c>
-      <c r="H194">
+      <c r="I194">
         <v>2018</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
         <v>165</v>
       </c>
-      <c r="B195">
+      <c r="C195">
         <v>69</v>
       </c>
-      <c r="C195">
+      <c r="D195">
         <v>95</v>
       </c>
-      <c r="D195">
+      <c r="E195">
         <v>179</v>
       </c>
-      <c r="E195">
+      <c r="F195">
         <v>160</v>
       </c>
-      <c r="F195">
+      <c r="G195">
         <v>170</v>
       </c>
-      <c r="G195">
+      <c r="H195">
         <v>160</v>
       </c>
-      <c r="H195">
+      <c r="I195">
         <v>2019</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
         <v>165</v>
       </c>
-      <c r="B196">
+      <c r="C196">
         <v>85</v>
       </c>
-      <c r="C196">
+      <c r="D196">
         <v>101</v>
       </c>
-      <c r="D196">
+      <c r="E196">
         <v>185</v>
       </c>
-      <c r="E196">
+      <c r="F196">
         <v>173</v>
       </c>
-      <c r="F196">
+      <c r="G196">
         <v>200</v>
       </c>
-      <c r="G196">
+      <c r="H196">
         <v>189</v>
       </c>
-      <c r="H196">
+      <c r="I196">
         <v>2020</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
         <v>165</v>
       </c>
-      <c r="B197">
+      <c r="C197">
         <v>86</v>
       </c>
-      <c r="C197">
+      <c r="D197">
         <v>105</v>
       </c>
-      <c r="D197">
+      <c r="E197">
         <v>162</v>
       </c>
-      <c r="E197">
+      <c r="F197">
         <v>173</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>230</v>
       </c>
-      <c r="G197">
+      <c r="H197">
         <v>154</v>
       </c>
-      <c r="H197">
+      <c r="I197">
         <v>2021</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
         <v>166</v>
       </c>
-      <c r="B198">
+      <c r="C198">
         <v>90</v>
       </c>
-      <c r="C198">
+      <c r="D198">
         <v>355</v>
       </c>
-      <c r="D198">
+      <c r="E198">
         <v>416</v>
       </c>
-      <c r="E198">
+      <c r="F198">
         <v>131</v>
       </c>
-      <c r="F198">
+      <c r="G198">
         <v>220</v>
       </c>
-      <c r="G198">
+      <c r="H198">
         <v>170</v>
       </c>
-      <c r="H198">
+      <c r="I198">
         <v>2018</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
         <v>166</v>
       </c>
-      <c r="B199">
+      <c r="C199">
         <v>98</v>
       </c>
-      <c r="C199">
+      <c r="D199">
         <v>281</v>
       </c>
-      <c r="D199">
+      <c r="E199">
         <v>328</v>
       </c>
-      <c r="E199">
+      <c r="F199">
         <v>161</v>
       </c>
-      <c r="F199">
+      <c r="G199">
         <v>263</v>
       </c>
-      <c r="G199">
+      <c r="H199">
         <v>172</v>
       </c>
-      <c r="H199">
+      <c r="I199">
         <v>2019</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
         <v>166</v>
       </c>
-      <c r="B200">
+      <c r="C200">
         <v>114</v>
       </c>
-      <c r="C200">
+      <c r="D200">
         <v>246</v>
       </c>
-      <c r="D200">
+      <c r="E200">
         <v>284</v>
       </c>
-      <c r="E200">
+      <c r="F200">
         <v>149</v>
       </c>
-      <c r="F200">
+      <c r="G200">
         <v>257</v>
       </c>
-      <c r="G200">
+      <c r="H200">
         <v>155</v>
       </c>
-      <c r="H200">
+      <c r="I200">
         <v>2020</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
         <v>166</v>
       </c>
-      <c r="B201">
+      <c r="C201">
         <v>112</v>
       </c>
-      <c r="C201">
+      <c r="D201">
         <v>200</v>
       </c>
-      <c r="D201">
+      <c r="E201">
         <v>340</v>
       </c>
-      <c r="E201">
+      <c r="F201">
         <v>118</v>
       </c>
-      <c r="F201">
+      <c r="G201">
         <v>220</v>
       </c>
-      <c r="G201">
+      <c r="H201">
         <v>152</v>
       </c>
-      <c r="H201">
+      <c r="I201">
         <v>2021</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
         <v>169</v>
       </c>
-      <c r="B202">
+      <c r="C202">
         <v>63</v>
       </c>
-      <c r="C202">
+      <c r="D202">
         <v>223</v>
       </c>
-      <c r="D202">
+      <c r="E202">
         <v>184</v>
       </c>
-      <c r="E202">
+      <c r="F202">
         <v>103</v>
       </c>
-      <c r="F202">
+      <c r="G202">
         <v>87</v>
       </c>
-      <c r="G202">
+      <c r="H202">
         <v>115</v>
       </c>
-      <c r="H202">
+      <c r="I202">
         <v>2018</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
         <v>169</v>
       </c>
-      <c r="B203">
+      <c r="C203">
         <v>76</v>
       </c>
-      <c r="C203">
+      <c r="D203">
         <v>226</v>
       </c>
-      <c r="D203">
+      <c r="E203">
         <v>191</v>
-      </c>
-      <c r="E203">
-        <v>84</v>
       </c>
       <c r="F203">
         <v>84</v>
       </c>
       <c r="G203">
+        <v>84</v>
+      </c>
+      <c r="H203">
         <v>107</v>
       </c>
-      <c r="H203">
+      <c r="I203">
         <v>2019</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
         <v>169</v>
       </c>
-      <c r="B204">
+      <c r="C204">
         <v>87</v>
       </c>
-      <c r="C204">
+      <c r="D204">
         <v>224</v>
       </c>
-      <c r="D204">
+      <c r="E204">
         <v>215</v>
       </c>
-      <c r="E204">
+      <c r="F204">
         <v>91</v>
       </c>
-      <c r="F204">
+      <c r="G204">
         <v>72</v>
       </c>
-      <c r="G204">
+      <c r="H204">
         <v>118</v>
       </c>
-      <c r="H204">
+      <c r="I204">
         <v>2020</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
         <v>169</v>
       </c>
-      <c r="B205">
+      <c r="C205">
         <v>96</v>
       </c>
-      <c r="C205">
+      <c r="D205">
         <v>178</v>
       </c>
-      <c r="D205">
+      <c r="E205">
         <v>245</v>
       </c>
-      <c r="E205">
+      <c r="F205">
         <v>91</v>
       </c>
-      <c r="F205">
+      <c r="G205">
         <v>76</v>
       </c>
-      <c r="G205">
+      <c r="H205">
         <v>129</v>
       </c>
-      <c r="H205">
+      <c r="I205">
         <v>2021</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
         <v>170</v>
       </c>
-      <c r="B206">
+      <c r="C206">
         <v>86</v>
       </c>
-      <c r="C206">
+      <c r="D206">
         <v>216</v>
       </c>
-      <c r="D206">
+      <c r="E206">
         <v>83</v>
       </c>
-      <c r="E206">
+      <c r="F206">
         <v>209</v>
       </c>
-      <c r="F206">
+      <c r="G206">
         <v>159</v>
       </c>
-      <c r="G206">
+      <c r="H206">
         <v>194</v>
       </c>
-      <c r="H206">
+      <c r="I206">
         <v>2018</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
         <v>170</v>
       </c>
-      <c r="B207">
+      <c r="C207">
         <v>67</v>
       </c>
-      <c r="C207">
+      <c r="D207">
         <v>255</v>
       </c>
-      <c r="D207">
+      <c r="E207">
         <v>96</v>
       </c>
-      <c r="E207">
+      <c r="F207">
         <v>186</v>
       </c>
-      <c r="F207">
+      <c r="G207">
         <v>157</v>
       </c>
-      <c r="G207">
+      <c r="H207">
         <v>219</v>
       </c>
-      <c r="H207">
+      <c r="I207">
         <v>2019</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
         <v>170</v>
       </c>
-      <c r="B208">
+      <c r="C208">
         <v>66</v>
       </c>
-      <c r="C208">
+      <c r="D208">
         <v>303</v>
       </c>
-      <c r="D208">
+      <c r="E208">
         <v>114</v>
       </c>
-      <c r="E208">
+      <c r="F208">
         <v>171</v>
       </c>
-      <c r="F208">
+      <c r="G208">
         <v>132</v>
       </c>
-      <c r="G208">
+      <c r="H208">
         <v>166</v>
       </c>
-      <c r="H208">
+      <c r="I208">
         <v>2020</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
         <v>170</v>
       </c>
-      <c r="B209">
+      <c r="C209">
         <v>82</v>
       </c>
-      <c r="C209">
+      <c r="D209">
         <v>270</v>
       </c>
-      <c r="D209">
+      <c r="E209">
         <v>98</v>
       </c>
-      <c r="E209">
+      <c r="F209">
         <v>154</v>
       </c>
-      <c r="F209">
+      <c r="G209">
         <v>122</v>
       </c>
-      <c r="G209">
+      <c r="H209">
         <v>159</v>
       </c>
-      <c r="H209">
+      <c r="I209">
         <v>2021</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
         <v>171</v>
       </c>
-      <c r="B210">
+      <c r="C210">
         <v>123</v>
       </c>
-      <c r="C210">
+      <c r="D210">
         <v>355</v>
       </c>
-      <c r="D210">
+      <c r="E210">
         <v>389</v>
       </c>
-      <c r="E210">
+      <c r="F210">
         <v>335</v>
       </c>
-      <c r="F210">
+      <c r="G210">
         <v>406</v>
       </c>
-      <c r="G210">
+      <c r="H210">
         <v>138</v>
       </c>
-      <c r="H210">
+      <c r="I210">
         <v>2018</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
         <v>171</v>
       </c>
-      <c r="B211">
+      <c r="C211">
         <v>145</v>
       </c>
-      <c r="C211">
+      <c r="D211">
         <v>435</v>
       </c>
-      <c r="D211">
+      <c r="E211">
         <v>463</v>
       </c>
-      <c r="E211">
+      <c r="F211">
         <v>379</v>
       </c>
-      <c r="F211">
+      <c r="G211">
         <v>372</v>
       </c>
-      <c r="G211">
+      <c r="H211">
         <v>124</v>
       </c>
-      <c r="H211">
+      <c r="I211">
         <v>2019</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
         <v>171</v>
       </c>
-      <c r="B212">
+      <c r="C212">
         <v>152</v>
       </c>
-      <c r="C212">
+      <c r="D212">
         <v>524</v>
       </c>
-      <c r="D212">
+      <c r="E212">
         <v>512</v>
       </c>
-      <c r="E212">
+      <c r="F212">
         <v>290</v>
       </c>
-      <c r="F212">
+      <c r="G212">
         <v>422</v>
       </c>
-      <c r="G212">
+      <c r="H212">
         <v>115</v>
       </c>
-      <c r="H212">
+      <c r="I212">
         <v>2020</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
         <v>171</v>
       </c>
-      <c r="B213">
+      <c r="C213">
         <v>165</v>
       </c>
-      <c r="C213">
+      <c r="D213">
         <v>529</v>
       </c>
-      <c r="D213">
+      <c r="E213">
         <v>405</v>
       </c>
-      <c r="E213">
+      <c r="F213">
         <v>332</v>
       </c>
-      <c r="F213">
+      <c r="G213">
         <v>467</v>
       </c>
-      <c r="G213">
+      <c r="H213">
         <v>116</v>
       </c>
-      <c r="H213">
+      <c r="I213">
         <v>2021</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
         <v>178</v>
       </c>
-      <c r="B214">
+      <c r="C214">
         <v>88</v>
       </c>
-      <c r="C214">
+      <c r="D214">
         <v>199</v>
       </c>
-      <c r="D214">
+      <c r="E214">
         <v>118</v>
       </c>
-      <c r="E214">
+      <c r="F214">
         <v>194</v>
       </c>
-      <c r="F214">
+      <c r="G214">
         <v>159</v>
       </c>
-      <c r="G214">
+      <c r="H214">
         <v>373</v>
       </c>
-      <c r="H214">
+      <c r="I214">
         <v>2018</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
         <v>178</v>
       </c>
-      <c r="B215">
+      <c r="C215">
         <v>93</v>
       </c>
-      <c r="C215">
+      <c r="D215">
         <v>201</v>
       </c>
-      <c r="D215">
+      <c r="E215">
         <v>96</v>
       </c>
-      <c r="E215">
+      <c r="F215">
         <v>165</v>
       </c>
-      <c r="F215">
+      <c r="G215">
         <v>150</v>
       </c>
-      <c r="G215">
+      <c r="H215">
         <v>414</v>
       </c>
-      <c r="H215">
+      <c r="I215">
         <v>2019</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
         <v>178</v>
       </c>
-      <c r="B216">
+      <c r="C216">
         <v>91</v>
       </c>
-      <c r="C216">
+      <c r="D216">
         <v>155</v>
       </c>
-      <c r="D216">
+      <c r="E216">
         <v>116</v>
       </c>
-      <c r="E216">
+      <c r="F216">
         <v>182</v>
       </c>
-      <c r="F216">
+      <c r="G216">
         <v>157</v>
       </c>
-      <c r="G216">
+      <c r="H216">
         <v>431</v>
       </c>
-      <c r="H216">
+      <c r="I216">
         <v>2020</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
         <v>178</v>
       </c>
-      <c r="B217">
+      <c r="C217">
         <v>107</v>
       </c>
-      <c r="C217">
+      <c r="D217">
         <v>185</v>
       </c>
-      <c r="D217">
+      <c r="E217">
         <v>88</v>
       </c>
-      <c r="E217">
+      <c r="F217">
         <v>153</v>
       </c>
-      <c r="F217">
+      <c r="G217">
         <v>188</v>
       </c>
-      <c r="G217">
+      <c r="H217">
         <v>369</v>
       </c>
-      <c r="H217">
+      <c r="I217">
         <v>2021</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
         <v>179</v>
       </c>
-      <c r="B218">
+      <c r="C218">
         <v>201</v>
       </c>
-      <c r="C218">
+      <c r="D218">
         <v>355</v>
       </c>
-      <c r="D218">
+      <c r="E218">
         <v>390</v>
       </c>
-      <c r="E218">
+      <c r="F218">
         <v>782</v>
       </c>
-      <c r="F218">
+      <c r="G218">
         <v>609</v>
       </c>
-      <c r="G218">
+      <c r="H218">
         <v>338</v>
       </c>
-      <c r="H218">
+      <c r="I218">
         <v>2018</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
         <v>179</v>
       </c>
-      <c r="B219">
+      <c r="C219">
         <v>190</v>
       </c>
-      <c r="C219">
+      <c r="D219">
         <v>428</v>
       </c>
-      <c r="D219">
+      <c r="E219">
         <v>312</v>
       </c>
-      <c r="E219">
+      <c r="F219">
         <v>875</v>
       </c>
-      <c r="F219">
+      <c r="G219">
         <v>609</v>
       </c>
-      <c r="G219">
+      <c r="H219">
         <v>381</v>
       </c>
-      <c r="H219">
+      <c r="I219">
         <v>2019</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
         <v>179</v>
       </c>
-      <c r="B220">
+      <c r="C220">
         <v>147</v>
       </c>
-      <c r="C220">
+      <c r="D220">
         <v>413</v>
       </c>
-      <c r="D220">
+      <c r="E220">
         <v>260</v>
       </c>
-      <c r="E220">
+      <c r="F220">
         <v>1077</v>
       </c>
-      <c r="F220">
+      <c r="G220">
         <v>492</v>
       </c>
-      <c r="G220">
+      <c r="H220">
         <v>332</v>
       </c>
-      <c r="H220">
+      <c r="I220">
         <v>2020</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
         <v>179</v>
       </c>
-      <c r="B221">
+      <c r="C221">
         <v>144</v>
       </c>
-      <c r="C221">
+      <c r="D221">
         <v>312</v>
       </c>
-      <c r="D221">
+      <c r="E221">
         <v>259</v>
       </c>
-      <c r="E221">
+      <c r="F221">
         <v>960</v>
       </c>
-      <c r="F221">
+      <c r="G221">
         <v>484</v>
       </c>
-      <c r="G221">
+      <c r="H221">
         <v>303</v>
       </c>
-      <c r="H221">
+      <c r="I221">
         <v>2021</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
         <v>180</v>
       </c>
-      <c r="B222">
+      <c r="C222">
         <v>66</v>
       </c>
-      <c r="C222">
+      <c r="D222">
         <v>355</v>
       </c>
-      <c r="D222">
+      <c r="E222">
         <v>152</v>
       </c>
-      <c r="E222">
+      <c r="F222">
         <v>159</v>
       </c>
-      <c r="F222">
+      <c r="G222">
         <v>87</v>
       </c>
-      <c r="G222">
+      <c r="H222">
         <v>78</v>
       </c>
-      <c r="H222">
+      <c r="I222">
         <v>2018</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
         <v>180</v>
       </c>
-      <c r="B223">
+      <c r="C223">
         <v>60</v>
       </c>
-      <c r="C223">
+      <c r="D223">
         <v>432</v>
       </c>
-      <c r="D223">
+      <c r="E223">
         <v>170</v>
       </c>
-      <c r="E223">
+      <c r="F223">
         <v>159</v>
       </c>
-      <c r="F223">
+      <c r="G223">
         <v>87</v>
       </c>
-      <c r="G223">
+      <c r="H223">
         <v>96</v>
       </c>
-      <c r="H223">
+      <c r="I223">
         <v>2019</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
         <v>180</v>
       </c>
-      <c r="B224">
+      <c r="C224">
         <v>55</v>
       </c>
-      <c r="C224">
+      <c r="D224">
         <v>328</v>
       </c>
-      <c r="D224">
+      <c r="E224">
         <v>205</v>
       </c>
-      <c r="E224">
+      <c r="F224">
         <v>157</v>
       </c>
-      <c r="F224">
+      <c r="G224">
         <v>84</v>
       </c>
-      <c r="G224">
+      <c r="H224">
         <v>104</v>
       </c>
-      <c r="H224">
+      <c r="I224">
         <v>2020</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
         <v>180</v>
       </c>
-      <c r="B225">
+      <c r="C225">
         <v>48</v>
       </c>
-      <c r="C225">
+      <c r="D225">
         <v>267</v>
       </c>
-      <c r="D225">
+      <c r="E225">
         <v>162</v>
       </c>
-      <c r="E225">
+      <c r="F225">
         <v>194</v>
       </c>
-      <c r="F225">
+      <c r="G225">
         <v>104</v>
       </c>
-      <c r="G225">
+      <c r="H225">
         <v>107</v>
       </c>
-      <c r="H225">
+      <c r="I225">
         <v>2021</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
         <v>189</v>
       </c>
-      <c r="B226">
+      <c r="C226">
         <v>25</v>
       </c>
-      <c r="C226">
+      <c r="D226">
         <v>101</v>
       </c>
-      <c r="D226">
+      <c r="E226">
         <v>86</v>
-      </c>
-      <c r="E226">
-        <v>31</v>
       </c>
       <c r="F226">
         <v>31</v>
       </c>
       <c r="G226">
+        <v>31</v>
+      </c>
+      <c r="H226">
         <v>29</v>
       </c>
-      <c r="H226">
+      <c r="I226">
         <v>2018</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
         <v>189</v>
       </c>
-      <c r="B227">
+      <c r="C227">
         <v>20</v>
       </c>
-      <c r="C227">
+      <c r="D227">
         <v>108</v>
       </c>
-      <c r="D227">
+      <c r="E227">
         <v>84</v>
       </c>
-      <c r="E227">
+      <c r="F227">
         <v>31</v>
       </c>
-      <c r="F227">
+      <c r="G227">
         <v>29</v>
       </c>
-      <c r="G227">
+      <c r="H227">
         <v>36</v>
       </c>
-      <c r="H227">
+      <c r="I227">
         <v>2019</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
         <v>189</v>
       </c>
-      <c r="B228">
+      <c r="C228">
         <v>24</v>
       </c>
-      <c r="C228">
+      <c r="D228">
         <v>115</v>
       </c>
-      <c r="D228">
+      <c r="E228">
         <v>104</v>
       </c>
-      <c r="E228">
+      <c r="F228">
         <v>33</v>
       </c>
-      <c r="F228">
+      <c r="G228">
         <v>23</v>
       </c>
-      <c r="G228">
+      <c r="H228">
         <v>32</v>
       </c>
-      <c r="H228">
+      <c r="I228">
         <v>2020</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
         <v>189</v>
       </c>
-      <c r="B229">
+      <c r="C229">
         <v>25</v>
       </c>
-      <c r="C229">
+      <c r="D229">
         <v>105</v>
       </c>
-      <c r="D229">
+      <c r="E229">
         <v>95</v>
       </c>
-      <c r="E229">
+      <c r="F229">
         <v>34</v>
       </c>
-      <c r="F229">
+      <c r="G229">
         <v>23</v>
       </c>
-      <c r="G229">
+      <c r="H229">
         <v>28</v>
       </c>
-      <c r="H229">
+      <c r="I229">
         <v>2021</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
         <v>190</v>
       </c>
-      <c r="B230">
+      <c r="C230">
         <v>205</v>
       </c>
-      <c r="C230">
+      <c r="D230">
         <v>355</v>
       </c>
-      <c r="D230">
+      <c r="E230">
         <v>264</v>
       </c>
-      <c r="E230">
+      <c r="F230">
         <v>749</v>
       </c>
-      <c r="F230">
+      <c r="G230">
         <v>493</v>
       </c>
-      <c r="G230">
+      <c r="H230">
         <v>637</v>
       </c>
-      <c r="H230">
+      <c r="I230">
         <v>2018</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
         <v>190</v>
       </c>
-      <c r="B231">
+      <c r="C231">
         <v>247</v>
       </c>
-      <c r="C231">
+      <c r="D231">
         <v>427</v>
       </c>
-      <c r="D231">
+      <c r="E231">
         <v>316</v>
       </c>
-      <c r="E231">
+      <c r="F231">
         <v>928</v>
       </c>
-      <c r="F231">
+      <c r="G231">
         <v>426</v>
       </c>
-      <c r="G231">
+      <c r="H231">
         <v>544</v>
       </c>
-      <c r="H231">
+      <c r="I231">
         <v>2019</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
         <v>190</v>
       </c>
-      <c r="B232">
+      <c r="C232">
         <v>306</v>
       </c>
-      <c r="C232">
+      <c r="D232">
         <v>413</v>
       </c>
-      <c r="D232">
+      <c r="E232">
         <v>346</v>
       </c>
-      <c r="E232">
+      <c r="F232">
         <v>905</v>
       </c>
-      <c r="F232">
+      <c r="G232">
         <v>341</v>
       </c>
-      <c r="G232">
+      <c r="H232">
         <v>624</v>
       </c>
-      <c r="H232">
+      <c r="I232">
         <v>2020</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
         <v>190</v>
       </c>
-      <c r="B233">
+      <c r="C233">
         <v>295</v>
       </c>
-      <c r="C233">
+      <c r="D233">
         <v>513</v>
       </c>
-      <c r="D233">
+      <c r="E233">
         <v>383</v>
       </c>
-      <c r="E233">
+      <c r="F233">
         <v>898</v>
       </c>
-      <c r="F233">
+      <c r="G233">
         <v>410</v>
       </c>
-      <c r="G233">
+      <c r="H233">
         <v>537</v>
       </c>
-      <c r="H233">
+      <c r="I233">
         <v>2021</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
         <v>191</v>
       </c>
-      <c r="B234">
+      <c r="C234">
         <v>224</v>
       </c>
-      <c r="C234">
+      <c r="D234">
         <v>355</v>
       </c>
-      <c r="D234">
+      <c r="E234">
         <v>478</v>
       </c>
-      <c r="E234">
+      <c r="F234">
         <v>936</v>
       </c>
-      <c r="F234">
+      <c r="G234">
         <v>609</v>
       </c>
-      <c r="G234">
+      <c r="H234">
         <v>552</v>
       </c>
-      <c r="H234">
+      <c r="I234">
         <v>2018</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
         <v>191</v>
       </c>
-      <c r="B235">
+      <c r="C235">
         <v>227</v>
       </c>
-      <c r="C235">
+      <c r="D235">
         <v>272</v>
       </c>
-      <c r="D235">
+      <c r="E235">
         <v>361</v>
       </c>
-      <c r="E235">
+      <c r="F235">
         <v>1080</v>
       </c>
-      <c r="F235">
+      <c r="G235">
         <v>726</v>
       </c>
-      <c r="G235">
+      <c r="H235">
         <v>507</v>
       </c>
-      <c r="H235">
+      <c r="I235">
         <v>2019</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
         <v>191</v>
-      </c>
-      <c r="B236">
-        <v>228</v>
       </c>
       <c r="C236">
         <v>228</v>
       </c>
       <c r="D236">
+        <v>228</v>
+      </c>
+      <c r="E236">
         <v>331</v>
       </c>
-      <c r="E236">
+      <c r="F236">
         <v>1279</v>
       </c>
-      <c r="F236">
+      <c r="G236">
         <v>807</v>
       </c>
-      <c r="G236">
+      <c r="H236">
         <v>583</v>
       </c>
-      <c r="H236">
+      <c r="I236">
         <v>2020</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
         <v>191</v>
       </c>
-      <c r="B237">
+      <c r="C237">
         <v>182</v>
       </c>
-      <c r="C237">
+      <c r="D237">
         <v>232</v>
       </c>
-      <c r="D237">
+      <c r="E237">
         <v>399</v>
       </c>
-      <c r="E237">
+      <c r="F237">
         <v>1115</v>
       </c>
-      <c r="F237">
+      <c r="G237">
         <v>778</v>
       </c>
-      <c r="G237">
+      <c r="H237">
         <v>487</v>
       </c>
-      <c r="H237">
+      <c r="I237">
         <v>2021</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
         <v>193</v>
       </c>
-      <c r="B238">
+      <c r="C238">
         <v>42</v>
       </c>
-      <c r="C238">
+      <c r="D238">
         <v>197</v>
       </c>
-      <c r="D238">
+      <c r="E238">
         <v>20</v>
       </c>
-      <c r="E238">
+      <c r="F238">
         <v>241</v>
       </c>
-      <c r="F238">
+      <c r="G238">
         <v>159</v>
       </c>
-      <c r="G238">
+      <c r="H238">
         <v>307</v>
       </c>
-      <c r="H238">
+      <c r="I238">
         <v>2018</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
         <v>193</v>
       </c>
-      <c r="B239">
+      <c r="C239">
         <v>46</v>
       </c>
-      <c r="C239">
+      <c r="D239">
         <v>219</v>
       </c>
-      <c r="D239">
+      <c r="E239">
         <v>17</v>
       </c>
-      <c r="E239">
+      <c r="F239">
         <v>274</v>
       </c>
-      <c r="F239">
+      <c r="G239">
         <v>162</v>
       </c>
-      <c r="G239">
+      <c r="H239">
         <v>347</v>
       </c>
-      <c r="H239">
+      <c r="I239">
         <v>2019</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
         <v>193</v>
       </c>
-      <c r="B240">
+      <c r="C240">
         <v>57</v>
       </c>
-      <c r="C240">
+      <c r="D240">
         <v>256</v>
       </c>
-      <c r="D240">
+      <c r="E240">
         <v>14</v>
       </c>
-      <c r="E240">
+      <c r="F240">
         <v>242</v>
       </c>
-      <c r="F240">
+      <c r="G240">
         <v>145</v>
       </c>
-      <c r="G240">
+      <c r="H240">
         <v>265</v>
       </c>
-      <c r="H240">
+      <c r="I240">
         <v>2020</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
         <v>193</v>
       </c>
-      <c r="B241">
+      <c r="C241">
         <v>47</v>
       </c>
-      <c r="C241">
+      <c r="D241">
         <v>263</v>
       </c>
-      <c r="D241">
+      <c r="E241">
         <v>15</v>
       </c>
-      <c r="E241">
+      <c r="F241">
         <v>216</v>
       </c>
-      <c r="F241">
+      <c r="G241">
         <v>127</v>
       </c>
-      <c r="G241">
+      <c r="H241">
         <v>273</v>
       </c>
-      <c r="H241">
+      <c r="I241">
         <v>2021</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
         <v>198</v>
       </c>
-      <c r="B242">
+      <c r="C242">
         <v>39</v>
       </c>
-      <c r="C242">
+      <c r="D242">
         <v>41</v>
       </c>
-      <c r="D242">
+      <c r="E242">
         <v>54</v>
       </c>
-      <c r="E242">
+      <c r="F242">
         <v>82</v>
       </c>
-      <c r="F242">
+      <c r="G242">
         <v>54</v>
       </c>
-      <c r="G242">
+      <c r="H242">
         <v>62</v>
       </c>
-      <c r="H242">
+      <c r="I242">
         <v>2018</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
         <v>198</v>
       </c>
-      <c r="B243">
+      <c r="C243">
         <v>46</v>
       </c>
-      <c r="C243">
+      <c r="D243">
         <v>47</v>
       </c>
-      <c r="D243">
+      <c r="E243">
         <v>65</v>
       </c>
-      <c r="E243">
+      <c r="F243">
         <v>74</v>
       </c>
-      <c r="F243">
+      <c r="G243">
         <v>66</v>
       </c>
-      <c r="G243">
+      <c r="H243">
         <v>72</v>
       </c>
-      <c r="H243">
+      <c r="I243">
         <v>2019</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
         <v>198</v>
       </c>
-      <c r="B244">
+      <c r="C244">
         <v>41</v>
       </c>
-      <c r="C244">
+      <c r="D244">
         <v>56</v>
       </c>
-      <c r="D244">
+      <c r="E244">
         <v>49</v>
       </c>
-      <c r="E244">
+      <c r="F244">
         <v>62</v>
       </c>
-      <c r="F244">
+      <c r="G244">
         <v>56</v>
       </c>
-      <c r="G244">
+      <c r="H244">
         <v>57</v>
       </c>
-      <c r="H244">
+      <c r="I244">
         <v>2020</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
         <v>198</v>
       </c>
-      <c r="B245">
+      <c r="C245">
         <v>34</v>
       </c>
-      <c r="C245">
+      <c r="D245">
         <v>52</v>
       </c>
-      <c r="D245">
+      <c r="E245">
         <v>59</v>
-      </c>
-      <c r="E245">
-        <v>48</v>
       </c>
       <c r="F245">
         <v>48</v>
       </c>
       <c r="G245">
+        <v>48</v>
+      </c>
+      <c r="H245">
         <v>60</v>
       </c>
-      <c r="H245">
+      <c r="I245">
         <v>2021</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
         <v>202</v>
       </c>
-      <c r="B246">
+      <c r="C246">
         <v>32</v>
-      </c>
-      <c r="C246">
-        <v>101</v>
       </c>
       <c r="D246">
         <v>101</v>
       </c>
       <c r="E246">
+        <v>101</v>
+      </c>
+      <c r="F246">
         <v>46</v>
       </c>
-      <c r="F246">
+      <c r="G246">
         <v>32</v>
       </c>
-      <c r="G246">
+      <c r="H246">
         <v>23</v>
       </c>
-      <c r="H246">
+      <c r="I246">
         <v>2018</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
         <v>202</v>
       </c>
-      <c r="B247">
+      <c r="C247">
         <v>26</v>
       </c>
-      <c r="C247">
+      <c r="D247">
         <v>113</v>
       </c>
-      <c r="D247">
+      <c r="E247">
         <v>84</v>
       </c>
-      <c r="E247">
+      <c r="F247">
         <v>35</v>
       </c>
-      <c r="F247">
+      <c r="G247">
         <v>28</v>
       </c>
-      <c r="G247">
+      <c r="H247">
         <v>27</v>
       </c>
-      <c r="H247">
+      <c r="I247">
         <v>2019</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
         <v>202</v>
       </c>
-      <c r="B248">
+      <c r="C248">
         <v>27</v>
       </c>
-      <c r="C248">
+      <c r="D248">
         <v>105</v>
       </c>
-      <c r="D248">
+      <c r="E248">
         <v>64</v>
       </c>
-      <c r="E248">
+      <c r="F248">
         <v>32</v>
       </c>
-      <c r="F248">
+      <c r="G248">
         <v>29</v>
       </c>
-      <c r="G248">
+      <c r="H248">
         <v>26</v>
       </c>
-      <c r="H248">
+      <c r="I248">
         <v>2020</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
         <v>202</v>
       </c>
-      <c r="B249">
+      <c r="C249">
         <v>34</v>
       </c>
-      <c r="C249">
+      <c r="D249">
         <v>87</v>
       </c>
-      <c r="D249">
+      <c r="E249">
         <v>63</v>
       </c>
-      <c r="E249">
+      <c r="F249">
         <v>35</v>
       </c>
-      <c r="F249">
+      <c r="G249">
         <v>34</v>
       </c>
-      <c r="G249">
+      <c r="H249">
         <v>30</v>
       </c>
-      <c r="H249">
+      <c r="I249">
         <v>2021</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
         <v>206</v>
       </c>
-      <c r="B250">
+      <c r="C250">
         <v>54</v>
       </c>
-      <c r="C250">
+      <c r="D250">
         <v>101</v>
       </c>
-      <c r="D250">
+      <c r="E250">
         <v>50</v>
       </c>
-      <c r="E250">
+      <c r="F250">
         <v>76</v>
       </c>
-      <c r="F250">
+      <c r="G250">
         <v>57</v>
       </c>
-      <c r="G250">
+      <c r="H250">
         <v>86</v>
       </c>
-      <c r="H250">
+      <c r="I250">
         <v>2018</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
         <v>206</v>
       </c>
-      <c r="B251">
+      <c r="C251">
         <v>58</v>
       </c>
-      <c r="C251">
+      <c r="D251">
         <v>83</v>
       </c>
-      <c r="D251">
+      <c r="E251">
         <v>43</v>
       </c>
-      <c r="E251">
+      <c r="F251">
         <v>58</v>
       </c>
-      <c r="F251">
+      <c r="G251">
         <v>63</v>
       </c>
-      <c r="G251">
+      <c r="H251">
         <v>101</v>
       </c>
-      <c r="H251">
+      <c r="I251">
         <v>2019</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
         <v>206</v>
       </c>
-      <c r="B252">
+      <c r="C252">
         <v>66</v>
       </c>
-      <c r="C252">
+      <c r="D252">
         <v>98</v>
       </c>
-      <c r="D252">
+      <c r="E252">
         <v>39</v>
       </c>
-      <c r="E252">
+      <c r="F252">
         <v>67</v>
       </c>
-      <c r="F252">
+      <c r="G252">
         <v>69</v>
       </c>
-      <c r="G252">
+      <c r="H252">
         <v>117</v>
       </c>
-      <c r="H252">
+      <c r="I252">
         <v>2020</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
         <v>206</v>
       </c>
-      <c r="B253">
+      <c r="C253">
         <v>54</v>
       </c>
-      <c r="C253">
+      <c r="D253">
         <v>116</v>
       </c>
-      <c r="D253">
+      <c r="E253">
         <v>45</v>
       </c>
-      <c r="E253">
+      <c r="F253">
         <v>79</v>
       </c>
-      <c r="F253">
+      <c r="G253">
         <v>71</v>
       </c>
-      <c r="G253">
+      <c r="H253">
         <v>109</v>
       </c>
-      <c r="H253">
+      <c r="I253">
         <v>2021</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
         <v>214</v>
       </c>
-      <c r="B254">
+      <c r="C254">
         <v>99</v>
       </c>
-      <c r="C254">
+      <c r="D254">
         <v>355</v>
       </c>
-      <c r="D254">
+      <c r="E254">
         <v>428</v>
       </c>
-      <c r="E254">
+      <c r="F254">
         <v>263</v>
       </c>
-      <c r="F254">
+      <c r="G254">
         <v>200</v>
       </c>
-      <c r="G254">
+      <c r="H254">
         <v>149</v>
       </c>
-      <c r="H254">
+      <c r="I254">
         <v>2018</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
         <v>214</v>
       </c>
-      <c r="B255">
+      <c r="C255">
         <v>101</v>
       </c>
-      <c r="C255">
+      <c r="D255">
         <v>412</v>
       </c>
-      <c r="D255">
+      <c r="E255">
         <v>528</v>
       </c>
-      <c r="E255">
+      <c r="F255">
         <v>270</v>
       </c>
-      <c r="F255">
+      <c r="G255">
         <v>192</v>
       </c>
-      <c r="G255">
+      <c r="H255">
         <v>183</v>
       </c>
-      <c r="H255">
+      <c r="I255">
         <v>2019</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
         <v>214</v>
       </c>
-      <c r="B256">
+      <c r="C256">
         <v>81</v>
       </c>
-      <c r="C256">
+      <c r="D256">
         <v>357</v>
       </c>
-      <c r="D256">
+      <c r="E256">
         <v>528</v>
       </c>
-      <c r="E256">
+      <c r="F256">
         <v>230</v>
       </c>
-      <c r="F256">
+      <c r="G256">
         <v>195</v>
       </c>
-      <c r="G256">
+      <c r="H256">
         <v>192</v>
       </c>
-      <c r="H256">
+      <c r="I256">
         <v>2020</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
         <v>214</v>
       </c>
-      <c r="B257">
+      <c r="C257">
         <v>74</v>
       </c>
-      <c r="C257">
+      <c r="D257">
         <v>364</v>
       </c>
-      <c r="D257">
+      <c r="E257">
         <v>451</v>
       </c>
-      <c r="E257">
+      <c r="F257">
         <v>248</v>
       </c>
-      <c r="F257">
+      <c r="G257">
         <v>176</v>
       </c>
-      <c r="G257">
+      <c r="H257">
         <v>144</v>
       </c>
-      <c r="H257">
+      <c r="I257">
         <v>2021</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
         <v>217</v>
       </c>
-      <c r="B258">
+      <c r="C258">
         <v>142</v>
       </c>
-      <c r="C258">
+      <c r="D258">
         <v>314</v>
       </c>
-      <c r="D258">
+      <c r="E258">
         <v>180</v>
       </c>
-      <c r="E258">
+      <c r="F258">
         <v>441</v>
       </c>
-      <c r="F258">
+      <c r="G258">
         <v>406</v>
       </c>
-      <c r="G258">
+      <c r="H258">
         <v>637</v>
       </c>
-      <c r="H258">
+      <c r="I258">
         <v>2018</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
         <v>217</v>
       </c>
-      <c r="B259">
+      <c r="C259">
         <v>120</v>
       </c>
-      <c r="C259">
+      <c r="D259">
         <v>345</v>
       </c>
-      <c r="D259">
+      <c r="E259">
         <v>156</v>
       </c>
-      <c r="E259">
+      <c r="F259">
         <v>535</v>
       </c>
-      <c r="F259">
+      <c r="G259">
         <v>507</v>
       </c>
-      <c r="G259">
+      <c r="H259">
         <v>706</v>
       </c>
-      <c r="H259">
+      <c r="I259">
         <v>2019</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
         <v>217</v>
       </c>
-      <c r="B260">
+      <c r="C260">
         <v>145</v>
       </c>
-      <c r="C260">
+      <c r="D260">
         <v>420</v>
       </c>
-      <c r="D260">
+      <c r="E260">
         <v>191</v>
       </c>
-      <c r="E260">
+      <c r="F260">
         <v>504</v>
       </c>
-      <c r="F260">
+      <c r="G260">
         <v>525</v>
       </c>
-      <c r="G260">
+      <c r="H260">
         <v>696</v>
       </c>
-      <c r="H260">
+      <c r="I260">
         <v>2020</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
         <v>217</v>
       </c>
-      <c r="B261">
+      <c r="C261">
         <v>156</v>
       </c>
-      <c r="C261">
+      <c r="D261">
         <v>478</v>
       </c>
-      <c r="D261">
+      <c r="E261">
         <v>236</v>
       </c>
-      <c r="E261">
+      <c r="F261">
         <v>574</v>
       </c>
-      <c r="F261">
+      <c r="G261">
         <v>583</v>
       </c>
-      <c r="G261">
+      <c r="H261">
         <v>631</v>
       </c>
-      <c r="H261">
+      <c r="I261">
         <v>2021</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H261"/>
+    <ignoredError sqref="B1:I261" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>